--- a/Groups.xlsx
+++ b/Groups.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Group1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Group" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,22 +424,53 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Omri</t>
+          <t>(318294931, Shalev  Afanasenko: 0,-9)</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>(305487936, Avihai  Kipnis: -7,9)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>(313227928, Aviv  Levi: 2,9)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>(205807308, Sariel  Basis: 4,-3)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>(315891549, Raz  Halaby: 1,5)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>(315060103, Dan  Mshelh: 9,-7)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>(313925141, Elad   Amer: -8,-8)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Matan</t>
-        </is>
+      <c r="A2" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ron</t>
-        </is>
+      <c r="A3" t="n">
+        <v>827.2087249588734</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>96.74410356555335</v>
       </c>
     </row>
   </sheetData>
